--- a/接口文档-Lingfeng.xlsx
+++ b/接口文档-Lingfeng.xlsx
@@ -50,16 +50,24 @@
       <rPr>
         <sz val="12"/>
         <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>{ -"country": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">{
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"country": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="PingFang SC Regular"/>
       </rPr>
       <t>英国</t>
     </r>
@@ -67,89 +75,74 @@
       <rPr>
         <sz val="12"/>
         <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>"pageNo": 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>"pageAmount": 10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>"needTotalAmount": "Y"  -}</t>
-    </r>
-  </si>
-  <si>
-    <t>country表示国家，pageNo表示页数，pageAmount表示一页多少个学校，needTotalAmount表示是否需要总数Y或N</t>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"schoolNamePart": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="PingFang SC Regular"/>
+      </rPr>
+      <t>大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">"pageNo": 1,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">"pageAmount": 10,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">"needTotalAmount": "Y"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>country表示国家，schoolNamePart只在根据中文名或英文名搜索学校时需要提供，pageNo表示页数，pageAmount表示一页多少个学校，needTotalAmount表示是否需要总数Y或N</t>
   </si>
   <si>
     <t>获取单个学校</t>
@@ -551,7 +544,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -566,6 +559,16 @@
       <sz val="15"/>
       <color indexed="8"/>
       <name val="DengXian"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="PingFang SC Regular"/>
     </font>
     <font>
       <sz val="12"/>
@@ -755,7 +758,7 @@
     <xf numFmtId="49" fontId="1" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1907,7 +1910,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" ht="90" customHeight="1">
+    <row r="4" ht="106.35" customHeight="1">
       <c r="A4" t="s" s="9">
         <v>9</v>
       </c>

--- a/接口文档-Lingfeng.xlsx
+++ b/接口文档-Lingfeng.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>表格 1</t>
   </si>
@@ -352,6 +352,94 @@
   </si>
   <si>
     <t>/localhost/jishu/unlikeStudent</t>
+  </si>
+  <si>
+    <t>根据某个学生id获取所有 +给他点赞的人列表</t>
+  </si>
+  <si>
+    <t>/localhost/jishu/likeStudentUserList</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">	 	"likeStudentId":18,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">	 	"pageNo": 1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">	 	"pageAmount": 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">	 }</t>
+    </r>
+  </si>
+  <si>
+    <t>likeStudentId表示学生id，pageNo表示页数，pageAmount表示一页显示多少个用户</t>
   </si>
   <si>
     <t>购买学生联系方式前的校验</t>
@@ -544,7 +632,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -574,6 +662,16 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="13"/>
+      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="4">
@@ -715,7 +813,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -758,6 +856,12 @@
     <xf numFmtId="49" fontId="1" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
     </xf>
@@ -791,6 +895,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ff4f76ca"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1855,7 +1960,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E13"/>
+  <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -2029,7 +2134,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" ht="58.35" customHeight="1">
+    <row r="11" ht="72.35" customHeight="1">
       <c r="A11" t="s" s="14">
         <v>32</v>
       </c>
@@ -2042,38 +2147,55 @@
       <c r="D11" t="s" s="12">
         <v>34</v>
       </c>
-      <c r="E11" t="s" s="11">
+      <c r="E11" t="s" s="15">
         <v>35</v>
       </c>
     </row>
-    <row r="12" ht="30.35" customHeight="1">
-      <c r="A12" t="s" s="9">
+    <row r="12" ht="58.35" customHeight="1">
+      <c r="A12" t="s" s="16">
         <v>36</v>
       </c>
-      <c r="B12" t="s" s="15">
+      <c r="B12" t="s" s="10">
         <v>37</v>
       </c>
       <c r="C12" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s" s="12">
         <v>38</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="E12" t="s" s="11">
+        <v>39</v>
+      </c>
     </row>
-    <row r="13" ht="88.65" customHeight="1">
+    <row r="13" ht="30.35" customHeight="1">
       <c r="A13" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s" s="15">
         <v>40</v>
       </c>
+      <c r="B13" t="s" s="17">
+        <v>41</v>
+      </c>
       <c r="C13" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" ht="88.65" customHeight="1">
+      <c r="A14" t="s" s="9">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s" s="17">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s" s="11">
         <v>8</v>
       </c>
-      <c r="D13" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s" s="17">
-        <v>42</v>
+      <c r="D14" t="s" s="12">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s" s="19">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/接口文档-Lingfeng.xlsx
+++ b/接口文档-Lingfeng.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>表格 1</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>响应格式</t>
   </si>
   <si>
     <t>获取国家列表</t>
@@ -623,6 +626,1195 @@
   </si>
   <si>
     <t>purchaseContactId表示购买联系方式的订单ID，scoreResponse表示响应速度评分，scoreAttitude表示态度评分，scoreProfessional表示专业性评分，所有评分范围为1，2，3，4，5分。</t>
+  </si>
+  <si>
+    <t>分页获取已经评论过的所有 +订单信息，同时附上给出
+评论的用户的相关信息</t>
+  </si>
+  <si>
+    <t>/localhost/jishu/getCommentedPurchaseContacts</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">	   		"studentId": 18,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">	   		"pageNo": 1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">	   		"pageAmount": 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">	   }</t>
+    </r>
+  </si>
+  <si>
+    <t>studentId是学生id，pageNo表示页数，pageAmount表示一页数量</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">{
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">    "status": "success",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">    "errroCode": null,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">    "errorMsg": null,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">    "data": [
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">        {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            "scoreAttitude": 3,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            "comment": "aaa",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            "scoreProfessional": 5,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            "scoreResponse": 1,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            "buyer": {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "id": 19,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "nickName": "xiren",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "email": null,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "cellPhone": "13967181428",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "password": "-1ef523c6b645a65441a91fa80df077c2",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "headImage": "</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>cdn.unclejee.cn/20190118215849_614.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "type": "user",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "status": "active",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "likeAmount": 0,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "createdTime": "2019-04-20 09:53:07",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "updatedTime": "2019-05-13 11:07:42",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "userStudentInfo": null
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">        },
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">        {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            "scoreAttitude": 4,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            "comment": "bbb",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            "scoreProfessional": 3,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            "scoreResponse": 2,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            "buyer": {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "id": 20,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "nickName": "guxiren1",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "email": "</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>872003327@qq.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "cellPhone": null,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "password": "-1ef523c6b645a65441a91fa80df077c2",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "headImage": "</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>cdn.unclejee.cn/20190118215849_614.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "type": "user",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "status": "active",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "likeAmount": 0,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "createdTime": "2019-04-22 09:56:47",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "updatedTime": "2019-05-13 11:07:42",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "userStudentInfo": null
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">        },
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">        {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            "scoreAttitude": 3,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            "comment": "aaa",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            "scoreProfessional": 5,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            "scoreResponse": 1,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            "buyer": {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "id": 19,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "nickName": "xiren",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "email": null,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "cellPhone": "13967181428",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "password": "-1ef523c6b645a65441a91fa80df077c2",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "headImage": "</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>cdn.unclejee.cn/20190118215849_614.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "type": "user",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "status": "active",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "likeAmount": 0,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "createdTime": "2019-04-20 09:53:07",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "updatedTime": "2019-05-13 11:07:42",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "userStudentInfo": null
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">        },
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">        {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            "scoreAttitude": 4,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            "comment": "bbb",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            "scoreProfessional": 3,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            "scoreResponse": 2,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            "buyer": {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "id": 20,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "nickName": "guxiren1",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "email": "</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>872003327@qq.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "cellPhone": null,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "password": "-1ef523c6b645a65441a91fa80df077c2",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "headImage": "</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>cdn.unclejee.cn/20190118215849_614.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "type": "user",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "status": "active",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "likeAmount": 0,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "createdTime": "2019-04-22 09:56:47",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "updatedTime": "2019-05-13 11:07:42",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "userStudentInfo": null
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">        },
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">        {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            "scoreAttitude": 4,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            "comment": "bbb",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            "scoreProfessional": 3,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            "scoreResponse": 2,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            "buyer": {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "id": 20,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "nickName": "guxiren1",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "email": "</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>872003327@qq.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "cellPhone": null,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "password": "-1ef523c6b645a65441a91fa80df077c2",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "headImage": "</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>cdn.unclejee.cn/20190118215849_614.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "type": "user",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "status": "active",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "likeAmount": 0,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "createdTime": "2019-04-22 09:56:47",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "updatedTime": "2019-05-13 11:07:42",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">                "userStudentInfo": null
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">            }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">        }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">    ]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>}</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -632,7 +1824,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -672,6 +1864,12 @@
       <sz val="12"/>
       <color indexed="13"/>
       <name val="Menlo"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="14"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="4">
@@ -813,7 +2011,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -853,13 +2051,22 @@
     <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -868,10 +2075,16 @@
     <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -896,6 +2109,7 @@
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ff4f76ca"/>
+      <rgbColor rgb="ff0563c1"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1960,7 +3174,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E14"/>
+  <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1972,8 +3186,8 @@
     <col min="2" max="2" width="38.3125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.9062" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.8047" style="1" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="6" width="38.8047" style="1" customWidth="1"/>
+    <col min="7" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1">
@@ -1984,6 +3198,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" ht="16.55" customHeight="1">
       <c r="A2" t="s" s="3">
@@ -2001,207 +3216,245 @@
       <c r="E2" t="s" s="3">
         <v>5</v>
       </c>
+      <c r="F2" t="s" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" ht="16.55" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" ht="106.35" customHeight="1">
       <c r="A4" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" s="11">
         <v>9</v>
       </c>
-      <c r="B4" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s" s="11">
-        <v>8</v>
-      </c>
       <c r="D4" t="s" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s" s="12">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" ht="44" customHeight="1">
       <c r="A5" t="s" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s" s="13">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="D5" t="s" s="14">
+        <v>16</v>
       </c>
       <c r="E5" t="s" s="11">
-        <v>16</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" ht="87" customHeight="1">
       <c r="A6" t="s" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s" s="12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s" s="12">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" ht="58.35" customHeight="1">
       <c r="A7" t="s" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s" s="11">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" ht="58.35" customHeight="1">
       <c r="A8" t="s" s="9">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s" s="11">
         <v>25</v>
       </c>
-      <c r="B8" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s" s="12">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s" s="11">
-        <v>24</v>
-      </c>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" ht="58.35" customHeight="1">
       <c r="A9" t="s" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s" s="11">
-        <v>29</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" ht="58.35" customHeight="1">
       <c r="A10" t="s" s="9">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s" s="11">
         <v>30</v>
       </c>
-      <c r="B10" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s" s="12">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s" s="11">
-        <v>29</v>
-      </c>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" ht="72.35" customHeight="1">
-      <c r="A11" t="s" s="14">
-        <v>32</v>
+      <c r="A11" t="s" s="16">
+        <v>33</v>
       </c>
       <c r="B11" t="s" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s" s="15">
         <v>35</v>
       </c>
+      <c r="E11" t="s" s="17">
+        <v>36</v>
+      </c>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" ht="58.35" customHeight="1">
-      <c r="A12" t="s" s="16">
-        <v>36</v>
+      <c r="A12" t="s" s="19">
+        <v>37</v>
       </c>
       <c r="B12" t="s" s="10">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s" s="12">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s" s="11">
-        <v>39</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" ht="30.35" customHeight="1">
       <c r="A13" t="s" s="9">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s" s="17">
         <v>41</v>
       </c>
+      <c r="B13" t="s" s="20">
+        <v>42</v>
+      </c>
       <c r="C13" t="s" s="11">
-        <v>42</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+        <v>43</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" ht="88.65" customHeight="1">
       <c r="A14" t="s" s="9">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s" s="17">
         <v>44</v>
       </c>
+      <c r="B14" t="s" s="20">
+        <v>45</v>
+      </c>
       <c r="C14" t="s" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s" s="19">
         <v>46</v>
+      </c>
+      <c r="E14" t="s" s="21">
+        <v>47</v>
+      </c>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" ht="83.45" customHeight="1">
+      <c r="A15" t="s" s="24">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s" s="20">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s" s="21">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s" s="21">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F15" r:id="rId1" location="" tooltip="" display=""/>
+  </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/接口文档-Lingfeng.xlsx
+++ b/接口文档-Lingfeng.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>表格 1</t>
   </si>
@@ -357,8 +357,7 @@
     <t>/localhost/jishu/unlikeStudent</t>
   </si>
   <si>
-    <t>根据某个学生id获取所有 -给他点赞的人列表</t>
+    <t>获取关注某学生的用户列表</t>
   </si>
   <si>
     <t>/localhost/jishu/likeStudentUserList</t>
@@ -421,7 +420,7 @@
         <color indexed="13"/>
         <rFont val="Menlo"/>
       </rPr>
-      <t xml:space="preserve">	 	"pageAmount": 1</t>
+      <t xml:space="preserve">	 	"pageAmount": 3</t>
     </r>
     <r>
       <rPr>
@@ -443,6 +442,90 @@
   </si>
   <si>
     <t>likeStudentId表示学生id，pageNo表示页数，pageAmount表示一页显示多少个用户</t>
+  </si>
+  <si>
+    <t>获取某学生关注的用户列表</t>
+  </si>
+  <si>
+    <t>/localhost/jishu/studentLikeUserList</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">	 	“studentId":19,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">	 	"pageNo": 1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">	 	"pageAmount": 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">	 }</t>
+    </r>
   </si>
   <si>
     <t>购买学生联系方式前的校验</t>
@@ -2064,7 +2147,7 @@
       <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
+      <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
@@ -3174,7 +3257,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F15"/>
+  <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -3182,7 +3265,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.9375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.9375" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.3125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.9062" style="1" customWidth="1"/>
@@ -3378,8 +3461,8 @@
       </c>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" ht="58.35" customHeight="1">
-      <c r="A12" t="s" s="19">
+    <row r="12" ht="72.35" customHeight="1">
+      <c r="A12" t="s" s="16">
         <v>37</v>
       </c>
       <c r="B12" t="s" s="10">
@@ -3391,26 +3474,30 @@
       <c r="D12" t="s" s="12">
         <v>39</v>
       </c>
-      <c r="E12" t="s" s="11">
+      <c r="E12" t="s" s="17">
+        <v>36</v>
+      </c>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" ht="58.35" customHeight="1">
+      <c r="A13" t="s" s="19">
         <v>40</v>
       </c>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" ht="30.35" customHeight="1">
-      <c r="A13" t="s" s="9">
+      <c r="B13" t="s" s="10">
         <v>41</v>
       </c>
-      <c r="B13" t="s" s="20">
+      <c r="C13" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="C13" t="s" s="11">
+      <c r="E13" t="s" s="11">
         <v>43</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" ht="88.65" customHeight="1">
+    <row r="14" ht="30.35" customHeight="1">
       <c r="A14" t="s" s="9">
         <v>44</v>
       </c>
@@ -3418,34 +3505,48 @@
         <v>45</v>
       </c>
       <c r="C14" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s" s="12">
         <v>46</v>
       </c>
-      <c r="E14" t="s" s="21">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" ht="88.65" customHeight="1">
+      <c r="A15" t="s" s="9">
         <v>47</v>
       </c>
-      <c r="F14" s="22"/>
-    </row>
-    <row r="15" ht="83.45" customHeight="1">
-      <c r="A15" t="s" s="24">
+      <c r="B15" t="s" s="20">
         <v>48</v>
-      </c>
-      <c r="B15" t="s" s="20">
-        <v>49</v>
       </c>
       <c r="C15" t="s" s="11">
         <v>9</v>
       </c>
       <c r="D15" t="s" s="12">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s" s="21">
         <v>50</v>
       </c>
-      <c r="E15" t="s" s="21">
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" ht="83.45" customHeight="1">
+      <c r="A16" t="s" s="24">
         <v>51</v>
       </c>
-      <c r="F15" t="s" s="21">
+      <c r="B16" t="s" s="20">
         <v>52</v>
+      </c>
+      <c r="C16" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s" s="12">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s" s="21">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s" s="21">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3453,7 +3554,7 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F15" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="F16" r:id="rId1" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/接口文档-Lingfeng.xlsx
+++ b/接口文档-Lingfeng.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>表格 1</t>
   </si>
@@ -342,6 +342,79 @@
     <t>/localhost/jishu/unlikeSchool</t>
   </si>
   <si>
+    <t>检查是否已点赞学校</t>
+  </si>
+  <si>
+    <t>/localhost/jishu/checkLikeSchool</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">	 	"userId":18,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">	 	"schoolId": 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">	 }</t>
+    </r>
+  </si>
+  <si>
+    <t>userId表示点赞者ID，schoolId表示学校ID</t>
+  </si>
+  <si>
+    <t>用户必须登录，否则会直接返回false</t>
+  </si>
+  <si>
     <t>给学生点赞</t>
   </si>
   <si>
@@ -355,6 +428,76 @@
   </si>
   <si>
     <t>/localhost/jishu/unlikeStudent</t>
+  </si>
+  <si>
+    <t>检查是否已点赞学生</t>
+  </si>
+  <si>
+    <t>/localhost/jishu/checkLikeStudent</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">	 	"userId":18,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">	 	"studentId": 30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">	 }</t>
+    </r>
+  </si>
+  <si>
+    <t>userId表示点赞者ID，studentId表示学生ID</t>
   </si>
   <si>
     <t>获取关注某学生的用户列表</t>
@@ -1939,14 +2082,14 @@
       <name val="Helvetica"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="13"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
       <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="13"/>
-      <name val="Menlo"/>
     </font>
     <font>
       <u val="single"/>
@@ -2143,13 +2286,13 @@
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2164,10 +2307,10 @@
     <xf numFmtId="0" fontId="1" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -3257,7 +3400,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F16"/>
+  <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -3418,19 +3561,21 @@
         <v>9</v>
       </c>
       <c r="D9" t="s" s="12">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s" s="11">
-        <v>30</v>
-      </c>
-      <c r="F9" s="15"/>
+        <v>31</v>
+      </c>
+      <c r="F9" t="s" s="11">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" ht="58.35" customHeight="1">
       <c r="A10" t="s" s="9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s" s="10">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s" s="11">
         <v>9</v>
@@ -3439,114 +3584,152 @@
         <v>24</v>
       </c>
       <c r="E10" t="s" s="11">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" ht="72.35" customHeight="1">
-      <c r="A11" t="s" s="16">
-        <v>33</v>
+    <row r="11" ht="58.35" customHeight="1">
+      <c r="A11" t="s" s="9">
+        <v>36</v>
       </c>
       <c r="B11" t="s" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s" s="11">
         <v>9</v>
       </c>
       <c r="D11" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s" s="11">
         <v>35</v>
       </c>
-      <c r="E11" t="s" s="17">
-        <v>36</v>
-      </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="15"/>
     </row>
-    <row r="12" ht="72.35" customHeight="1">
-      <c r="A12" t="s" s="16">
-        <v>37</v>
+    <row r="12" ht="58.35" customHeight="1">
+      <c r="A12" t="s" s="9">
+        <v>38</v>
       </c>
       <c r="B12" t="s" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s" s="11">
         <v>9</v>
       </c>
       <c r="D12" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s" s="17">
-        <v>36</v>
-      </c>
-      <c r="F12" s="18"/>
+        <v>40</v>
+      </c>
+      <c r="E12" t="s" s="11">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s" s="11">
+        <v>32</v>
+      </c>
     </row>
-    <row r="13" ht="58.35" customHeight="1">
-      <c r="A13" t="s" s="19">
-        <v>40</v>
+    <row r="13" ht="72.35" customHeight="1">
+      <c r="A13" t="s" s="16">
+        <v>42</v>
       </c>
       <c r="B13" t="s" s="10">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s" s="11">
         <v>9</v>
       </c>
       <c r="D13" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="F13" s="15"/>
+        <v>44</v>
+      </c>
+      <c r="E13" t="s" s="17">
+        <v>45</v>
+      </c>
+      <c r="F13" s="18"/>
     </row>
-    <row r="14" ht="30.35" customHeight="1">
-      <c r="A14" t="s" s="9">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s" s="20">
+    <row r="14" ht="72.35" customHeight="1">
+      <c r="A14" t="s" s="16">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s" s="10">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s" s="12">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s" s="17">
         <v>45</v>
       </c>
-      <c r="C14" t="s" s="11">
-        <v>46</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="F14" s="18"/>
     </row>
-    <row r="15" ht="88.65" customHeight="1">
-      <c r="A15" t="s" s="9">
-        <v>47</v>
-      </c>
-      <c r="B15" t="s" s="20">
-        <v>48</v>
+    <row r="15" ht="58.35" customHeight="1">
+      <c r="A15" t="s" s="19">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s" s="10">
+        <v>50</v>
       </c>
       <c r="C15" t="s" s="11">
         <v>9</v>
       </c>
       <c r="D15" t="s" s="12">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s" s="21">
-        <v>50</v>
-      </c>
-      <c r="F15" s="22"/>
+        <v>51</v>
+      </c>
+      <c r="E15" t="s" s="11">
+        <v>52</v>
+      </c>
+      <c r="F15" s="15"/>
     </row>
-    <row r="16" ht="83.45" customHeight="1">
-      <c r="A16" t="s" s="24">
-        <v>51</v>
+    <row r="16" ht="30.35" customHeight="1">
+      <c r="A16" t="s" s="9">
+        <v>53</v>
       </c>
       <c r="B16" t="s" s="20">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" ht="88.65" customHeight="1">
+      <c r="A17" t="s" s="9">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s" s="20">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s" s="11">
         <v>9</v>
       </c>
-      <c r="D16" t="s" s="12">
-        <v>53</v>
-      </c>
-      <c r="E16" t="s" s="21">
-        <v>54</v>
-      </c>
-      <c r="F16" t="s" s="21">
-        <v>55</v>
+      <c r="D17" t="s" s="12">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s" s="21">
+        <v>59</v>
+      </c>
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" ht="83.45" customHeight="1">
+      <c r="A18" t="s" s="24">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s" s="20">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s" s="12">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s" s="21">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s" s="21">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3554,7 +3737,7 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F16" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="F18" r:id="rId1" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/接口文档-Lingfeng.xlsx
+++ b/接口文档-Lingfeng.xlsx
@@ -838,7 +838,8 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve">"scoreProfessional": 4
+      <t xml:space="preserve">"scoreProfessional": 4, +"comment": “testcomment"
 </t>
     </r>
     <r>
@@ -851,7 +852,7 @@
     </r>
   </si>
   <si>
-    <t>purchaseContactId表示购买联系方式的订单ID，scoreResponse表示响应速度评分，scoreAttitude表示态度评分，scoreProfessional表示专业性评分，所有评分范围为1，2，3，4，5分。</t>
+    <t>purchaseContactId表示购买联系方式的订单ID，scoreResponse表示响应速度评分，scoreAttitude表示态度评分，scoreProfessional表示专业性评分，所有评分范围为1，2，3，4，5分; comment表示评价内容</t>
   </si>
   <si>
     <t>分页获取已经评论过的所有 @@ -3694,7 +3695,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" ht="88.65" customHeight="1">
+    <row r="17" ht="106" customHeight="1">
       <c r="A17" t="s" s="9">
         <v>56</v>
       </c>
